--- a/blinds.xlsx
+++ b/blinds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5af75f7960e4e9c1/Projects/Web Projects/PokerTimer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DF02D1-0A92-430D-B267-92D49A64AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{03DF02D1-0A92-430D-B267-92D49A64AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB81316-C1B5-4E6C-8701-494B52175950}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{5942BA09-E675-4C88-B93D-28F36D532686}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>125</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>175</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>225</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>275</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>300</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>325</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>350</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>375</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>400</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>425</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>450</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>475</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>500</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>525</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>550</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>575</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>600</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>625</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>650</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>675</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>700</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>725</v>
